--- a/raw_data/invasives_raw.xlsx
+++ b/raw_data/invasives_raw.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizduermit/Google Drive/PSR/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFDF8F8B-73DA-974D-98D8-8D62DEF16318}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE1C0E-89E5-8046-B7F4-662E22B0F294}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="209">
   <si>
     <t>Tropical Atlantic</t>
   </si>
@@ -641,9 +641,6 @@
   </si>
   <si>
     <t>Freshwater;  Brackish</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> South America"</t>
   </si>
   <si>
     <t xml:space="preserve"> Asia; North America;  Australia; South America</t>
@@ -655,7 +652,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1489,16 +1486,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3042,9 +3040,6 @@
         <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
-      </c>
-      <c r="D73" t="s">
         <v>207</v>
       </c>
       <c r="G73" t="s">
@@ -3212,10 +3207,7 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
-      </c>
-      <c r="D86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G86" t="s">
         <v>85</v>
